--- a/cucumberframework/InputExcelData/Quotes.xlsx
+++ b/cucumberframework/InputExcelData/Quotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CucumberFramework-master\CucumberFramework-master\InputExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\TouchPointFramework\TouchPointFramework\cucumberframework\InputExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAF1886-495F-4BDD-B89C-B030E01AAF05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6800DB5-5D2D-4ECD-8B7F-A2622AC757B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
   <si>
     <t>VendorName</t>
   </si>
@@ -86,6 +86,9 @@
   </si>
   <si>
     <t>TENERA SHEER SHADINGS CARERING</t>
+  </si>
+  <si>
+    <t>TENERA SHEER SHADINGS CONTINUUM</t>
   </si>
 </sst>
 </file>
@@ -413,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,7 +432,7 @@
     <col min="6" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,7 +449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -457,12 +460,17 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2"/>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/cucumberframework/InputExcelData/Quotes.xlsx
+++ b/cucumberframework/InputExcelData/Quotes.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\git\TouchPointFramework\TouchPointFramework\cucumberframework\InputExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6800DB5-5D2D-4ECD-8B7F-A2622AC757B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DB287E-FC83-42C2-A847-D3A0DA4604F5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
   <si>
     <t>VendorName</t>
   </si>
@@ -89,6 +89,9 @@
   </si>
   <si>
     <t>TENERA SHEER SHADINGS CONTINUUM</t>
+  </si>
+  <si>
+    <t>Discount</t>
   </si>
 </sst>
 </file>
@@ -130,12 +133,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -416,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -429,10 +436,11 @@
     <col min="3" max="3" width="14.21875" style="1" customWidth="1"/>
     <col min="4" max="4" width="28.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="31.6640625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="31.6640625" style="3" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,8 +456,11 @@
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F1" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -465,11 +476,34 @@
       <c r="E2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="4">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F3" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F4" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F5" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="F6" s="3">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
